--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/000_活动表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/000_活动表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894AD63B-FD56-4E26-83E0-BE2DB3ED916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB933609-958F-4590-9334-72B3C6F95F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="0" windowWidth="13500" windowHeight="20835" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26070" yWindow="1455" windowWidth="13500" windowHeight="16545" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Banner" sheetId="2" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/000_活动表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/000_活动表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB933609-958F-4590-9334-72B3C6F95F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C331A3-209E-4B5F-9A94-7EF86D70A4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26070" yWindow="1455" windowWidth="13500" windowHeight="16545" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="714" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Banner" sheetId="2" r:id="rId1"/>
@@ -899,14 +899,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
@@ -998,15 +997,13 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="4" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="8" width="21.5" customWidth="1"/>
     <col min="9" max="9" width="23.375" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
@@ -1258,15 +1255,14 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
     <col min="9" max="10" width="14.875" customWidth="1"/>
@@ -1911,6 +1907,9 @@
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
 </ds:datastoreItem>
 </file>